--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_valid.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_valid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEF80&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF530&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD6490E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEC00&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEF10&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBECE0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEB20&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64B760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEFF0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD648120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE9D0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64AD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBED50&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD64A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE8F0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C38656632</t>
+          <t>C54381316</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
+          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
+          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>379.57</v>
+        <v>251.29</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" t="n">
         <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>87.17</v>
+        <v>96.86</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB898C0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C14524875</t>
+          <t>C38656632</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(C)[nH]c(C(=O)/N=c2/[nH]c(C[NH+]3CCCCC3)cs2)c1C</t>
+          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1c(C)[nH]c(C(=O)/N=c2/[nH]c(C[NH+]3CCCCC3)cs2)c1C</t>
+          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>391.52</v>
+        <v>379.57</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>91.75</v>
+        <v>87.17</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBFED0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C62725980</t>
+          <t>C15078738</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1[nH]ncc1S(=O)(=O)/N=c1\cc[nH]cc1N</t>
+          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1[nH]ncc1S(=O)(=O)/N=c1\cc[nH]cc1N</t>
+          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>253.29</v>
+        <v>437.59</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>116.99</v>
+        <v>54.44</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBFE60&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C39468964</t>
+          <t>C28903161</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CSC1=C[C@@H]2C[C@@H]3CO[P@](=O)([O-])N[NH+]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CSC1=C[C@@H]2C[C@@H]3CO[P@](=O)([O-])N[NH+]3C[C@@H]2C=C1S(=O)(=O)Oc1ccccc1</t>
+          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>444.47</v>
+        <v>468.59</v>
       </c>
       <c r="H15" t="n">
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>109.2</v>
+        <v>103.81</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC430&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C37538773</t>
+          <t>C39652797</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
+          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CC(=O)OC[C@@H]1O[C@H](O[C@@H]2[C@H](C(C)C)CC[C@@]3(C)[C@H](O)CC=C(C)[C@@H]23)[C@H](O)[C@H](O)[C@@H]1O</t>
+          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>442.55</v>
+        <v>487.62</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>125.68</v>
+        <v>88.14</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8270&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C28903161</t>
+          <t>C43410998</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
+          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
+          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>468.59</v>
+        <v>318.83</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
       <c r="M17" t="n">
-        <v>103.81</v>
+        <v>48.14</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DE00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8120&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C22078502</t>
+          <t>C18996973</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
+          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>c1ccc(C2CCC([NH+]3CC[NH+]4CCC[C@@H]4[C@H]3C3CCCCC3)CC2)cc1</t>
+          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>368.61</v>
+        <v>432.07</v>
       </c>
       <c r="H18" t="n">
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>8.880000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9B60&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C22829129</t>
+          <t>C67187362</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
+          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C/C(NCCCN1CC[NH+](C)CC1)=C1\C(=O)NC(=S)N(CC(C)C)C1=O</t>
+          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>382.55</v>
+        <v>374.51</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
+        <v>3</v>
+      </c>
+      <c r="L19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
       <c r="M19" t="n">
-        <v>69.12</v>
+        <v>86.92</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9770&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C03642811</t>
+          <t>C24273519</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
+          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fc1ccc2c(c1)[C@H]1OCC[C@H]1[C@H](c1ccco1)N2</t>
+          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,29 +1795,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>259.28</v>
+        <v>429.42</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>34.4</v>
+        <v>104.37</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9EE0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C66323440</t>
+          <t>C39973096</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Clc1nc(Cl)c2[nH]cc(Br)c2n1</t>
+          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Clc1nc(Cl)c2[nH]cc(Br)c2n1</t>
+          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1863,29 +1863,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>266.91</v>
+        <v>449.51</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>41.57</v>
+        <v>99.8</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA260&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C05478046</t>
+          <t>CHEMBL515940</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
+          <t>C=C1CC[C@H]2[C@@](C)(CC[C@H]3C(C)(C)CCC[C@]23C)[C@@H]1CC1OC(=O)C=C1CO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1[C@H]2[C@@H]3C[C@@H]([C@H](O)[C@H]3O)[C@@H]2C(=O)N1c1ccccc1O</t>
+          <t>C=C1CC[C@@H]2[C@@]3(C)CCCC(C)(C)[C@@H]3CC[C@@]2(C)[C@@H]1CC1OC(=O)C=C1CO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1931,40 +1931,66 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>289.29</v>
+        <v>386.58</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>98.06999999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+        <v>46.53</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>90000</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>CHEMBL950672</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Inhibition of MAPKAPK2 assessed as [33P] incorporation by scintillation proximity assay</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA2D0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +2002,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL515940</t>
+          <t>CHEMBL466701</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +2010,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C=C1CC[C@H]2[C@@](C)(CC[C@H]3C(C)(C)CCC[C@]23C)[C@@H]1CC1OC(=O)C=C1CO</t>
+          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C=C1CC[C@@H]2[C@@]3(C)CCCC(C)(C)[C@@H]3CC[C@@]2(C)[C@@H]1CC1OC(=O)C=C1CO</t>
+          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2029,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>386.58</v>
+        <v>299.37</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>46.53</v>
+        <v>71.09</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2039,16 +2065,16 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>90000</v>
+        <v>65000</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>CHEMBL950672</t>
+          <t>CHEMBL1011420</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Inhibition of MAPKAPK2 assessed as [33P] incorporation by scintillation proximity assay</t>
+          <t>Inhibition of human recombinant MK2</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2058,7 +2084,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66FBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA340&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2070,7 +2096,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL466701</t>
+          <t>CHEMBL3629317</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2078,12 +2104,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
+          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
+          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2097,29 +2123,29 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>299.37</v>
+        <v>304.77</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>71.09</v>
+        <v>89.61</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2129,20 +2155,20 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>65000</v>
+        <v>6</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>CHEMBL1011420</t>
+          <t>CHEMBL3630369</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant MK2</t>
+          <t>Inhibition of MK2 (unknown origin) at 20 uM by scintillation proximity assay</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2152,7 +2178,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66DFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA490&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2164,7 +2190,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL464238</t>
+          <t>CHEMBL1909403</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2172,12 +2198,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
+          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>O=C(NOCCO)c1cc(COCCO)c(F)c(F)c1Nc1ccc(I)cc1F</t>
+          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2191,25 +2217,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>526.25</v>
+        <v>431.39</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
         <v>6</v>
       </c>
-      <c r="J25" t="n">
-        <v>10</v>
-      </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>100.05</v>
+        <v>75.34</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2227,16 +2253,16 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>0.82</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>CHEMBL1011756</t>
+          <t>CHEMBL1961969</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Binding affinity to MK2 at 10 uM</t>
+          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2246,7 +2272,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8200&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2258,7 +2284,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL233001</t>
+          <t>CHEMBL352222</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2266,12 +2292,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
+          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
+          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2285,25 +2311,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>332.43</v>
+        <v>394.17</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="n">
         <v>2</v>
       </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
       <c r="M26" t="n">
-        <v>52.89</v>
+        <v>121.57</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2321,7 +2347,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>3.95</v>
+        <v>0.34</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2340,104 +2366,10 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66CBA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8CF0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>CHEMBL352222</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>394.17</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>121.57</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F0BD66E420&gt;</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_valid.xlsx
+++ b/F_dataset/DUD-E/MAPK2/MAPK2_preprocessing/MAPK2_valid.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL389658</t>
+          <t>CHEMBL403154</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C(C)(C)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C(O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
+          <t>CC(C)(C)CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C(C)(C)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>333.35</v>
+        <v>536.7</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>95.08</v>
+        <v>108.36</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBAB20&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL599682</t>
+          <t>CHEMBL389658</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cccc(-c2cccc(-n3cc(-c4ccc5c(c4)CCNC5=O)c(N)n3)c2)c1</t>
+          <t>O=C(O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cccc(-c2cccc(-n3cc(-c4ccc5c(c4)CCNC5=O)c(N)n3)c2)c1</t>
+          <t>O=C(O)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>410.48</v>
+        <v>333.35</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>82.17</v>
+        <v>95.08</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBF530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBA9D0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL256194</t>
+          <t>CHEMBL549585</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,44 +692,44 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(CC(C)(C)C)CC5)cs4)cc3n21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cncnc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCN(CC(C)(C)C)CC5)cs4)cc3n21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cncnc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>522.6799999999999</v>
+        <v>361.43</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>108.36</v>
+        <v>79.8</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBAC00&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL564076</t>
+          <t>CHEMBL247509</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,44 +760,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5)ccc4c23)C(=O)N1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccncc4)cc3c21</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5ccccc5)ccc4c23)C(=O)N1</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccncc4)cc3c21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>359.45</v>
+        <v>320.35</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>54.02</v>
+        <v>86.88</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBAFF0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL270150</t>
+          <t>CHEMBL258045</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CC1(C)CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
+          <t>CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CC1(C)CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
+          <t>CN1CCC(NC(=O)c2csc(NC(=O)c3ccc4cc5n(c4c3)C3(CCC3)CNC5=O)n2)CC1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>465.58</v>
+        <v>492.61</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>105.12</v>
+        <v>108.36</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB6F0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL594090</t>
+          <t>CHEMBL246301</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC(=O)O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCN(C)CC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nc1ncc2c(n1)c(-c1cc(-c3cc4ccccc4s3)c3[nH]ncc3c1)cn2CCC(=O)O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NC5CCN(C)CC5)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>454.52</v>
+        <v>466.57</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
-        <v>6</v>
-      </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>122.71</v>
+        <v>119.22</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB760&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL246090</t>
+          <t>CHEMBL409727</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCC(N)=O)cs4)cc3c21</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCC(N)=O)cs4)cc3c21</t>
+          <t>CC1CNC(=O)c2cc3ccc(C(=O)Nc4nc(C(=O)NC5CCCCC5)cs4)cc3n21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>440.49</v>
+        <v>451.55</v>
       </c>
       <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4</v>
-      </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>159.07</v>
+        <v>105.12</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBEFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB7D0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL225975</t>
+          <t>CHEMBL560075</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cccnc4)c3)cc21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cccnc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>O=C1NCCc2[nH]c(-c3ccnc(-c4cccnc4)c3)cc21</t>
+          <t>C[C@H]1CNc2c(sc3ccc4nc(-c5cccnc5)ccc4c23)C(=O)N1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1047,29 +1047,29 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>290.33</v>
+        <v>360.44</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70.67</v>
+        <v>66.91</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB840&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL442419</t>
+          <t>CHEMBL388853</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccc(C(N)=O)cc4)cc3c21</t>
+          <t>O=C(NC1CCCC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4ccc(C(N)=O)cc4)cc3c21</t>
+          <t>O=C(NC1CCCC1)c1ccc(-c2cc(-c3cc4c([nH]3)CCNC4=O)ccn2)cc1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>362.39</v>
+        <v>400.48</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>117.08</v>
+        <v>86.88</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB8B0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL403258</t>
+          <t>CHEMBL396160</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(C(=O)NC2CCN(Cc3ccccc3)CC2)cs1)c1ccc2cc3n(c2c1)C1(CCC1)CNC3=O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN)cs4)cc3c21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O=C(Nc1nc(C(=O)NC2CCN(Cc3ccccc3)CC2)cs1)c1ccc2cc3n(c2c1)C1(CCC1)CNC3=O</t>
+          <t>CC1CNC(=O)c2[nH]c3ccc(C(=O)Nc4nc(C(=O)NCCN)cs4)cc3c21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>568.7</v>
+        <v>412.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>108.36</v>
+        <v>142</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBE8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505EBB920&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>C54381316</t>
+          <t>C17105438</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
+          <t>O=c1[nH]c(=S)cnn1[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
+          <t>O=c1[nH]c(=S)cnn1[C@@H]1O[C@H](CO)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>251.29</v>
+        <v>261.26</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>96.86</v>
+        <v>120.6</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FB898C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6AC00&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>C38656632</t>
+          <t>C54381316</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
+          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
+          <t>CC1(C)CN(c2nccnc2/C(N)=N/O)CCO1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>379.57</v>
+        <v>251.29</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
         <v>2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>87.17</v>
+        <v>96.86</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBFED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6AB20&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>C15078738</t>
+          <t>C38656632</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
+          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>c1ccc2sc(N3CCC[C@H]([NH2+]C4CCN(c5ccc6c(c5)OCO6)CC4)C3)nc2c1</t>
+          <t>CC1(C)C[C@@H](N=C=O)C[C@](C)(CNC(=O)NC2CC(C)(C)[NH2+]C(C)(C)C2)C1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>437.59</v>
+        <v>379.57</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>54.44</v>
+        <v>87.17</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBFE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6A570&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>C28903161</t>
+          <t>C42169910</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
+          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
+          <t>NC(=O)NC[C@H]1CCCN(C(=O)C[C@@H]2CCC[NH2+]2)C1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>468.59</v>
+        <v>269.37</v>
       </c>
       <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>103.81</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBBC430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B4C0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>C39652797</t>
+          <t>C19219727</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
+          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CCOc1ccccc1CCNC(=O)[C@H]1CN(C(=O)c2ccc3ccccc3n2)CC12CC[NH2+]CC2</t>
+          <t>Cc1ccc2c([C@@H](O)C[NH+]3CCC4(CC3)C[C@H](O)c3ccc5ccccc5c3O4)c[nH]c2c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>487.62</v>
+        <v>443.57</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>88.14</v>
+        <v>69.92</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69700&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>C43410998</t>
+          <t>C05343188</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
+          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NC(=S)c1cc2c(nc1Oc1ccccc1Cl)CCCC2</t>
+          <t>Cc1ccc([C@H]2c3c(-c4cc(Cl)c(C)cc4O)n[nH]c3C(=O)N2CCO)cc1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>318.83</v>
+        <v>397.86</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>48.14</v>
+        <v>89.45</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B290&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>C18996973</t>
+          <t>C04163775</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
+          <t>O=C(c1ccc(Cl)cc1)[C@H]1[C@H](c2ccccc2F)NC(O)=[NH+][C@@]1([O-])C(F)(F)F</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CCCOc1c(Br)cc(Br)cc1C=C1C(=O)NC(=O)NC1=O</t>
+          <t>O=C(c1ccc(Cl)cc1)[C@H]1[C@H](c2ccccc2F)NC(O)=[NH+][C@@]1([O-])C(F)(F)F</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>432.07</v>
+        <v>416.76</v>
       </c>
       <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
+      <c r="L18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
       <c r="M18" t="n">
-        <v>84.5</v>
+        <v>86.36</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68120&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>C67187362</t>
+          <t>C36242501</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
+          <t>Nc1cc(Br)cn2cnnc12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1nn(CCO)c(C)c1C[NH2+]CCCN1CCN(c2ncccn2)CC1</t>
+          <t>Nc1cc(Br)cn2cnnc12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,25 +1731,25 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>374.51</v>
+        <v>213.04</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>86.92</v>
+        <v>56.21</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68A50&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C24273519</t>
+          <t>C50359907</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
+          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(C)c(S(=O)(=O)Nc2ccccc2C(=O)NCC(F)(F)F)c1</t>
+          <t>Clc1ccc(-n2cnnn2)cc1NCc1cc(Br)c(Br)o1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1795,29 +1795,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>429.42</v>
+        <v>433.49</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>104.37</v>
+        <v>68.77</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68AC0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C39973096</t>
+          <t>C28903161</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
+          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cc1cc2c(cc1C)=[NH+]C(/C(C#N)=C\c1cn(Cc3ccc([N+](=O)[O-])cc3)c3ccccc13)[NH+]=2</t>
+          <t>Cc1cncc(Cn2ncc3cc(Nc4ncnn5ccc(CN6CCC([NH3+])CC6)c45)ccc32)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1863,29 +1863,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>449.51</v>
+        <v>468.59</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
         <v>5</v>
       </c>
-      <c r="K21" t="n">
-        <v>5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
       <c r="M21" t="n">
-        <v>99.8</v>
+        <v>103.81</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E68F90&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL515940</t>
+          <t>C06925575</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C=C1CC[C@H]2[C@@](C)(CC[C@H]3C(C)(C)CCC[C@]23C)[C@@H]1CC1OC(=O)C=C1CO</t>
+          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C=C1CC[C@@H]2[C@@]3(C)CCCC(C)(C)[C@@H]3CC[C@@]2(C)[C@@H]1CC1OC(=O)C=C1CO</t>
+          <t>Nc1c(Cl)cc2oc(-c3cc(F)c(F)cc3Cl)nc2c1Cl</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1931,11 +1931,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>386.58</v>
+        <v>349.55</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1944,53 +1944,27 @@
         <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>46.53</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>90000</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>CHEMBL950672</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Inhibition of MAPKAPK2 assessed as [33P] incorporation by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>52.05</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69070&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2002,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL466701</t>
+          <t>C20275534</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2010,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
+          <t>C[C@@]12CCCC[C@@H]1CC[C@@H]1[C@H]3CC[C@](O)(C[NH+](CCO)CCO)[C@]3(C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1c(Nc2ccncc2)c(=O)c1=O)C1CCCCC1</t>
+          <t>C[C@@]12CCCC[C@@H]1CC[C@H]1[C@@H]2CC[C@]2(C)[C@@H]1CC[C@]2(O)C[NH+](CCO)CCO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2025,66 +1999,40 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>299.37</v>
+        <v>394.62</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>71.09</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>65000</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>CHEMBL1011420</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant MK2</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>65.13</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69230&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2096,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL3629317</t>
+          <t>C17304371</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2104,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
+          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nc1ncc(Cl)nc1-c1nsc(Nc2ccccc2)n1</t>
+          <t>O=C(CCc1ccc(S(=O)(=O)N2CCCC2)cc1)N=c1[nH]c2ccccc2[nH]1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2119,66 +2067,40 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>304.77</v>
+        <v>398.49</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>89.61</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>6</v>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>CHEMBL3630369</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Inhibition of MK2 (unknown origin) at 20 uM by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>98.39</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBAA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69D20&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2190,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL1909403</t>
+          <t>C43284207</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2198,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OCCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
+          <t>CC[C@H]([NH3+])[C@H](Sc1nc(N)cc(N)n1)c1ccc(Br)s1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2213,66 +2135,40 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>431.39</v>
+        <v>375.34</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>75.34</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>105.46</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E69E00&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2284,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL352222</t>
+          <t>C49025558</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2292,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>O=C1NC(=O)C(c2cccc([N+](=O)[O-])c2)=C1Nc1cc(Cl)c(O)c(Cl)c1</t>
+          <t>CCN(CC(=O)NC)C(=O)c1cc(F)ccc1C#CC[NH3+]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2307,66 +2203,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>394.17</v>
+        <v>292.33</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>121.57</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>CHEMBL1961969</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MAPKAPK2 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>77.05</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001C87FBA8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002E505E6B370&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
